--- a/Trip and visit WY24_25 Database.xlsx
+++ b/Trip and visit WY24_25 Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azhartan/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D9A2F4-892A-DA43-AE7A-6F43B09C0413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A45D1F9-9085-2A44-B56A-ED9C8FE6A44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14160" xr2:uid="{2A6250CB-0E72-D34B-9E58-2A5B8C13EA68}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="117">
   <si>
     <t>S/N</t>
   </si>
@@ -188,12 +188,6 @@
   </si>
   <si>
     <t>Trip/Visit</t>
-  </si>
-  <si>
-    <t>Visit (Incoming)</t>
-  </si>
-  <si>
-    <t>Trip (Outgoing)</t>
   </si>
   <si>
     <t>China</t>
@@ -866,7 +860,7 @@
   <dimension ref="A1:V1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -907,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -919,49 +913,49 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -976,7 +970,7 @@
         <v>45414</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -994,28 +988,28 @@
         <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M2" t="s">
         <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R2">
         <v>987</v>
@@ -1024,7 +1018,7 @@
         <v>546</v>
       </c>
       <c r="T2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="U2" s="4" t="str">
         <f>IF(B2&lt;&gt;"",TEXT(B2,"mmmm"),"")</f>
@@ -1046,7 +1040,7 @@
         <v>45444</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -1064,28 +1058,28 @@
         <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R3">
         <v>51631</v>
@@ -1094,7 +1088,7 @@
         <v>897</v>
       </c>
       <c r="T3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="U3" s="4" t="str">
         <f t="shared" ref="U3:U66" si="0">IF(B3&lt;&gt;"",TEXT(B3,"mmmm"),"")</f>
@@ -1116,7 +1110,7 @@
         <v>45555</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -1134,28 +1128,28 @@
         <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M4" t="s">
         <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R4">
         <v>987</v>
@@ -1164,7 +1158,7 @@
         <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="U4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1186,7 +1180,7 @@
         <v>45397</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -1204,28 +1198,28 @@
         <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M5" t="s">
         <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R5">
         <v>987</v>
@@ -1234,7 +1228,7 @@
         <v>9</v>
       </c>
       <c r="T5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="U5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1256,7 +1250,7 @@
         <v>45586</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -1268,34 +1262,34 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I6" t="s">
         <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s">
         <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R6">
         <v>894</v>
@@ -1304,7 +1298,7 @@
         <v>8</v>
       </c>
       <c r="T6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="U6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1326,7 +1320,7 @@
         <v>45419</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
@@ -1344,28 +1338,28 @@
         <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M7" t="s">
         <v>32</v>
       </c>
       <c r="N7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R7">
         <v>51</v>
@@ -1374,7 +1368,7 @@
         <v>7</v>
       </c>
       <c r="T7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="U7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1396,7 +1390,7 @@
         <v>45391</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -1414,28 +1408,28 @@
         <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M8" t="s">
         <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R8">
         <v>6</v>
@@ -1444,7 +1438,7 @@
         <v>88</v>
       </c>
       <c r="T8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="U8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1466,7 +1460,7 @@
         <v>45546</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -1484,28 +1478,28 @@
         <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M9" t="s">
         <v>37</v>
       </c>
       <c r="N9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R9">
         <v>51</v>
@@ -1514,7 +1508,7 @@
         <v>6</v>
       </c>
       <c r="T9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="U9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1536,7 +1530,7 @@
         <v>45878</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -1554,28 +1548,28 @@
         <v>27</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M10" t="s">
         <v>39</v>
       </c>
       <c r="N10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R10">
         <v>65</v>
@@ -1584,7 +1578,7 @@
         <v>5</v>
       </c>
       <c r="T10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="U10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1606,7 +1600,7 @@
         <v>45617</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
@@ -1624,28 +1618,28 @@
         <v>27</v>
       </c>
       <c r="J11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s">
         <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R11">
         <v>151</v>
@@ -1654,7 +1648,7 @@
         <v>5641</v>
       </c>
       <c r="T11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="U11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1676,10 +1670,10 @@
         <v>45332</v>
       </c>
       <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" t="s">
         <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
@@ -1691,31 +1685,31 @@
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R12">
         <v>51</v>
@@ -1724,7 +1718,7 @@
         <v>5</v>
       </c>
       <c r="T12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="U12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1746,10 +1740,10 @@
         <v>45617</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -1758,34 +1752,34 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" t="s">
-        <v>115</v>
-      </c>
-      <c r="M13" t="s">
-        <v>49</v>
-      </c>
-      <c r="N13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O13" t="s">
-        <v>101</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="Q13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R13">
         <v>651</v>
@@ -1794,7 +1788,7 @@
         <v>51</v>
       </c>
       <c r="T13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="U13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16704,7 +16698,7 @@
   <dimension ref="B1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16714,22 +16708,22 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -16741,19 +16735,19 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
@@ -16761,76 +16755,76 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
         <v>89</v>
       </c>
-      <c r="D3" t="s">
-        <v>91</v>
-      </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -16838,7 +16832,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
@@ -16846,52 +16840,52 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Trip and visit WY24_25 Database.xlsx
+++ b/Trip and visit WY24_25 Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azhartan/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAAB9E9-3061-1D43-9474-CA51C807BA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D4CB5F-D0DE-8148-8A99-0237E77AFBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14160" xr2:uid="{2A6250CB-0E72-D34B-9E58-2A5B8C13EA68}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="115">
   <si>
     <t>S/N</t>
   </si>
@@ -211,12 +211,6 @@
   </si>
   <si>
     <t>ASEAN A</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Year</t>
   </si>
   <si>
     <t>Del Lead</t>
@@ -394,9 +388,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-809]dd\ mmm\ yy;@"/>
-    <numFmt numFmtId="165" formatCode="mmmm"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -443,14 +436,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -837,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826E0327-3077-DD4B-8AF7-1631FDB88C0E}">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -865,12 +855,10 @@
     <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,19 +881,19 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>2</v>
@@ -914,31 +902,25 @@
         <v>52</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>ROW(A1)</f>
         <v>1</v>
@@ -950,7 +932,7 @@
         <v>45414</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -968,13 +950,13 @@
         <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M2" t="s">
         <v>21</v>
@@ -983,13 +965,13 @@
         <v>57</v>
       </c>
       <c r="O2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="Q2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="R2">
         <v>987</v>
@@ -998,18 +980,10 @@
         <v>546</v>
       </c>
       <c r="T2" t="s">
-        <v>114</v>
-      </c>
-      <c r="U2" s="4" t="str">
-        <f>IF(B2&lt;&gt;"",TEXT(B2,"mmmm"),"")</f>
-        <v>May</v>
-      </c>
-      <c r="V2" s="6" t="str">
-        <f>IF(B2&lt;&gt;"",TEXT(B2,"yyyy"),"")</f>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A13" si="0">ROW(A2)</f>
         <v>2</v>
@@ -1021,7 +995,7 @@
         <v>45444</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -1039,13 +1013,13 @@
         <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
@@ -1054,13 +1028,13 @@
         <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>50</v>
       </c>
       <c r="Q3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="R3">
         <v>51631</v>
@@ -1069,18 +1043,10 @@
         <v>897</v>
       </c>
       <c r="T3" t="s">
-        <v>114</v>
-      </c>
-      <c r="U3" s="4" t="str">
-        <f t="shared" ref="U3:U13" si="1">IF(B3&lt;&gt;"",TEXT(B3,"mmmm"),"")</f>
-        <v>May</v>
-      </c>
-      <c r="V3" s="6" t="str">
-        <f t="shared" ref="V3:V13" si="2">IF(B3&lt;&gt;"",TEXT(B3,"yyyy"),"")</f>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1092,7 +1058,7 @@
         <v>45555</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -1110,13 +1076,13 @@
         <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M4" t="s">
         <v>23</v>
@@ -1125,13 +1091,13 @@
         <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>50</v>
       </c>
       <c r="Q4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R4">
         <v>987</v>
@@ -1140,18 +1106,10 @@
         <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>114</v>
-      </c>
-      <c r="U4" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>September</v>
-      </c>
-      <c r="V4" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1163,7 +1121,7 @@
         <v>45397</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -1181,13 +1139,13 @@
         <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M5" t="s">
         <v>24</v>
@@ -1196,13 +1154,13 @@
         <v>57</v>
       </c>
       <c r="O5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>50</v>
       </c>
       <c r="Q5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R5">
         <v>987</v>
@@ -1211,18 +1169,10 @@
         <v>9</v>
       </c>
       <c r="T5" t="s">
-        <v>114</v>
-      </c>
-      <c r="U5" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>April</v>
-      </c>
-      <c r="V5" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1234,7 +1184,7 @@
         <v>45586</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -1246,19 +1196,19 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I6" t="s">
         <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s">
         <v>25</v>
@@ -1267,13 +1217,13 @@
         <v>55</v>
       </c>
       <c r="O6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>50</v>
       </c>
       <c r="Q6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R6">
         <v>894</v>
@@ -1282,18 +1232,10 @@
         <v>8</v>
       </c>
       <c r="T6" t="s">
-        <v>115</v>
-      </c>
-      <c r="U6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>October</v>
-      </c>
-      <c r="V6" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1305,7 +1247,7 @@
         <v>45419</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
@@ -1323,13 +1265,13 @@
         <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M7" t="s">
         <v>32</v>
@@ -1338,13 +1280,13 @@
         <v>56</v>
       </c>
       <c r="O7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>50</v>
       </c>
       <c r="Q7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R7">
         <v>51</v>
@@ -1353,18 +1295,10 @@
         <v>7</v>
       </c>
       <c r="T7" t="s">
-        <v>115</v>
-      </c>
-      <c r="U7" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>May</v>
-      </c>
-      <c r="V7" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1376,7 +1310,7 @@
         <v>45391</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -1394,13 +1328,13 @@
         <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M8" t="s">
         <v>34</v>
@@ -1409,13 +1343,13 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>50</v>
       </c>
       <c r="Q8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R8">
         <v>6</v>
@@ -1424,18 +1358,10 @@
         <v>88</v>
       </c>
       <c r="T8" t="s">
-        <v>115</v>
-      </c>
-      <c r="U8" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>April</v>
-      </c>
-      <c r="V8" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1447,7 +1373,7 @@
         <v>45546</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -1465,13 +1391,13 @@
         <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M9" t="s">
         <v>37</v>
@@ -1480,13 +1406,13 @@
         <v>57</v>
       </c>
       <c r="O9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>50</v>
       </c>
       <c r="Q9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R9">
         <v>51</v>
@@ -1495,18 +1421,10 @@
         <v>6</v>
       </c>
       <c r="T9" t="s">
-        <v>114</v>
-      </c>
-      <c r="U9" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>September</v>
-      </c>
-      <c r="V9" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1518,7 +1436,7 @@
         <v>45878</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -1536,13 +1454,13 @@
         <v>27</v>
       </c>
       <c r="J10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s">
         <v>39</v>
@@ -1551,13 +1469,13 @@
         <v>55</v>
       </c>
       <c r="O10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>50</v>
       </c>
       <c r="Q10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R10">
         <v>65</v>
@@ -1566,18 +1484,10 @@
         <v>5</v>
       </c>
       <c r="T10" t="s">
-        <v>114</v>
-      </c>
-      <c r="U10" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>August</v>
-      </c>
-      <c r="V10" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1589,7 +1499,7 @@
         <v>45617</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
@@ -1607,13 +1517,13 @@
         <v>27</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s">
         <v>56</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M11" t="s">
         <v>41</v>
@@ -1622,13 +1532,13 @@
         <v>56</v>
       </c>
       <c r="O11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>50</v>
       </c>
       <c r="Q11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R11">
         <v>151</v>
@@ -1637,18 +1547,10 @@
         <v>5641</v>
       </c>
       <c r="T11" t="s">
-        <v>116</v>
-      </c>
-      <c r="U11" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>November</v>
-      </c>
-      <c r="V11" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1660,7 +1562,7 @@
         <v>45332</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
         <v>43</v>
@@ -1678,13 +1580,13 @@
         <v>45</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M12" t="s">
         <v>44</v>
@@ -1693,13 +1595,13 @@
         <v>54</v>
       </c>
       <c r="O12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>50</v>
       </c>
       <c r="Q12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R12">
         <v>51</v>
@@ -1708,18 +1610,10 @@
         <v>5</v>
       </c>
       <c r="T12" t="s">
-        <v>114</v>
-      </c>
-      <c r="U12" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>February</v>
-      </c>
-      <c r="V12" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1731,7 +1625,7 @@
         <v>45617</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
         <v>46</v>
@@ -1743,19 +1637,19 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
         <v>48</v>
       </c>
       <c r="J13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M13" t="s">
         <v>47</v>
@@ -1764,13 +1658,13 @@
         <v>53</v>
       </c>
       <c r="O13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>50</v>
       </c>
       <c r="Q13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R13">
         <v>651</v>
@@ -1779,15 +1673,7 @@
         <v>51</v>
       </c>
       <c r="T13" t="s">
-        <v>116</v>
-      </c>
-      <c r="U13" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>November</v>
-      </c>
-      <c r="V13" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>2024</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1879,7 +1765,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>42</v>
@@ -1888,13 +1774,13 @@
         <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -1906,13 +1792,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
         <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1926,27 +1812,27 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
         <v>87</v>
-      </c>
-      <c r="D3" t="s">
-        <v>89</v>
       </c>
       <c r="E3" t="s">
         <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1955,18 +1841,18 @@
         <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -1975,15 +1861,15 @@
         <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -1992,10 +1878,10 @@
         <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -2003,7 +1889,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
@@ -2011,52 +1897,52 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
